--- a/rolls.xlsx
+++ b/rolls.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,7 +456,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Филадельфия</t>
+          <t>Калифорния</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -467,7 +467,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Калифорния</t>
+          <t>филадельфия</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -478,7 +478,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Каппа маки</t>
+          <t>сладкий ролл</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Унаги маки</t>
+          <t>чикен маки</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -500,10 +500,219 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Крабовый ролл</t>
+          <t>острый лосось</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>лосось темпура</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>курица темпура</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>угорь темпура</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>копченная фила</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>фила спешл</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>запеч магистр</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>запеч фила</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>саке маки</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>унаги запеч</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>овощьной ролл</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>чикаго ролл</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>маки курица</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>фила с угрем</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>соус сушиза</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>спайси соус</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>сырный соус</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>чедр ролл</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>мини рол огурец</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>кляр для темпура</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/rolls.xlsx
+++ b/rolls.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>sale_price</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>cost</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -459,7 +464,12 @@
           <t>Калифорния</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="n">
+        <v>96</v>
+      </c>
+      <c r="D2" t="n">
+        <v>94.59</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -470,7 +480,12 @@
           <t>филадельфия</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="n">
+        <v>203</v>
+      </c>
+      <c r="D3" t="n">
+        <v>203.21</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -481,7 +496,12 @@
           <t>сладкий ролл</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" t="n">
+        <v>129</v>
+      </c>
+      <c r="D4" t="n">
+        <v>129.13</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -492,7 +512,12 @@
           <t>чикен маки</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>79</v>
+      </c>
+      <c r="D5" t="n">
+        <v>81.37</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -503,7 +528,12 @@
           <t>острый лосось</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="n">
+        <v>139</v>
+      </c>
+      <c r="D6" t="n">
+        <v>141.9</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -514,7 +544,12 @@
           <t>лосось темпура</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>160</v>
+      </c>
+      <c r="D7" t="n">
+        <v>163.29</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -525,7 +560,12 @@
           <t>курица темпура</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" t="n">
+        <v>82</v>
+      </c>
+      <c r="D8" t="n">
+        <v>84.42</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -536,7 +576,12 @@
           <t>угорь темпура</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="n">
+        <v>141</v>
+      </c>
+      <c r="D9" t="n">
+        <v>143.12</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -547,7 +592,12 @@
           <t>копченная фила</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>196</v>
+      </c>
+      <c r="D10" t="n">
+        <v>196.52</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -558,7 +608,12 @@
           <t>фила спешл</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="n">
+        <v>209</v>
+      </c>
+      <c r="D11" t="n">
+        <v>209.71</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -569,7 +624,12 @@
           <t>запеч магистр</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" t="n">
+        <v>82</v>
+      </c>
+      <c r="D12" t="n">
+        <v>82.25</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -580,7 +640,12 @@
           <t>запеч фила</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" t="n">
+        <v>203</v>
+      </c>
+      <c r="D13" t="n">
+        <v>203.11</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -591,7 +656,12 @@
           <t>саке маки</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" t="n">
+        <v>74</v>
+      </c>
+      <c r="D14" t="n">
+        <v>76.38</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -602,7 +672,12 @@
           <t>унаги запеч</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" t="n">
+        <v>100</v>
+      </c>
+      <c r="D15" t="n">
+        <v>100.7</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -613,7 +688,12 @@
           <t>овощьной ролл</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" t="n">
+        <v>45</v>
+      </c>
+      <c r="D16" t="n">
+        <v>45.85</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -624,7 +704,12 @@
           <t>чикаго ролл</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" t="n">
+        <v>86</v>
+      </c>
+      <c r="D17" t="n">
+        <v>86.29000000000001</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -635,7 +720,12 @@
           <t>маки курица</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" t="n">
+        <v>48</v>
+      </c>
+      <c r="D18" t="n">
+        <v>48.72</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -646,7 +736,12 @@
           <t>фила с угрем</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" t="n">
+        <v>61</v>
+      </c>
+      <c r="D19" t="n">
+        <v>140.2</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -654,10 +749,15 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>соус сушиза</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
+          <t>чедр ролл</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>118</v>
+      </c>
+      <c r="D20" t="n">
+        <v>118.17</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -665,10 +765,15 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>спайси соус</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
+          <t>мини рол огурец</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>34</v>
+      </c>
+      <c r="D21" t="n">
+        <v>311.65</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -676,10 +781,15 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>сырный соус</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
+          <t>соус сушиза</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>524.9</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -687,10 +797,15 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>чедр ролл</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
+          <t>спайси соус</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>352</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -698,21 +813,15 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>мини рол огурец</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>24</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>кляр для темпура</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
+          <t>сырный соус</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>348.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
